--- a/SEER analysis/Mortality88-00.xlsx
+++ b/SEER analysis/Mortality88-00.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10910"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jpoleszczuk\Documents\GitHub\CMOSTv2\SEER analysis\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/janek/Documents/GitHub/CMOSTv2/SEER analysis/"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{315A3702-0B3F-2445-A1B4-FDFF8BC69932}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="9120" yWindow="-18555" windowWidth="27660" windowHeight="14175"/>
+    <workbookView xWindow="5940" yWindow="460" windowWidth="27660" windowHeight="14180" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet 1" sheetId="1" r:id="rId1"/>
@@ -19,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="22">
   <si>
     <t>Age recode with &lt;1 year olds</t>
   </si>
@@ -76,12 +77,21 @@
   </si>
   <si>
     <t>Male and female</t>
+  </si>
+  <si>
+    <t>(0,4]</t>
+  </si>
+  <si>
+    <t>(4,9]</t>
+  </si>
+  <si>
+    <t>(9,14]</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -170,7 +180,7 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>'Sheet 1'!$A$2:$A$16</c:f>
+              <c:f>'Sheet 1'!$A$5:$A$19</c:f>
               <c:strCache>
                 <c:ptCount val="15"/>
                 <c:pt idx="0">
@@ -223,7 +233,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Sheet 1'!$B$2:$B$16</c:f>
+              <c:f>'Sheet 1'!$B$5:$B$19</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="15"/>
@@ -302,7 +312,7 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>'Sheet 1'!$A$2:$A$16</c:f>
+              <c:f>'Sheet 1'!$A$5:$A$19</c:f>
               <c:strCache>
                 <c:ptCount val="15"/>
                 <c:pt idx="0">
@@ -355,7 +365,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Sheet 1'!$C$2:$C$16</c:f>
+              <c:f>'Sheet 1'!$C$5:$C$19</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="15"/>
@@ -434,7 +444,7 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>'Sheet 1'!$A$2:$A$16</c:f>
+              <c:f>'Sheet 1'!$A$5:$A$19</c:f>
               <c:strCache>
                 <c:ptCount val="15"/>
                 <c:pt idx="0">
@@ -487,7 +497,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Sheet 1'!$D$2:$D$16</c:f>
+              <c:f>'Sheet 1'!$D$5:$D$19</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="15"/>
@@ -591,7 +601,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -617,7 +626,7 @@
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="en-US"/>
+              <a:endParaRPr lang="pl-PL"/>
             </a:p>
           </c:txPr>
         </c:title>
@@ -655,7 +664,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="pl-PL"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="1951408399"/>
@@ -717,7 +726,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -743,7 +751,7 @@
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="en-US"/>
+              <a:endParaRPr lang="pl-PL"/>
             </a:p>
           </c:txPr>
         </c:title>
@@ -775,7 +783,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="pl-PL"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="1951453599"/>
@@ -792,7 +800,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="t"/>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -818,13 +825,12 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="en-US"/>
+          <a:endParaRPr lang="pl-PL"/>
         </a:p>
       </c:txPr>
     </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
-    <c:showDLblsOverMax val="0"/>
     <c:extLst>
       <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
         <c16r3:dataDisplayOptions16>
@@ -832,6 +838,7 @@
         </c16r3:dataDisplayOptions16>
       </c:ext>
     </c:extLst>
+    <c:showDLblsOverMax val="0"/>
   </c:chart>
   <c:spPr>
     <a:solidFill>
@@ -855,7 +862,7 @@
       <a:pPr>
         <a:defRPr sz="1200"/>
       </a:pPr>
-      <a:endParaRPr lang="en-US"/>
+      <a:endParaRPr lang="pl-PL"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -1428,13 +1435,13 @@
     <xdr:from>
       <xdr:col>4</xdr:col>
       <xdr:colOff>546100</xdr:colOff>
-      <xdr:row>3</xdr:row>
+      <xdr:row>6</xdr:row>
       <xdr:rowOff>12700</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>13</xdr:col>
       <xdr:colOff>152400</xdr:colOff>
-      <xdr:row>22</xdr:row>
+      <xdr:row>25</xdr:row>
       <xdr:rowOff>165100</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
@@ -1741,21 +1748,21 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D16"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:D19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D20" sqref="D20"/>
+      <selection activeCell="F5" sqref="F5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="22.7109375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="14.7109375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="5.7109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="22.6640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="14.6640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="5.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1769,213 +1776,255 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
+        <v>19</v>
+      </c>
+      <c r="B2">
+        <v>0</v>
+      </c>
+      <c r="C2">
+        <v>0</v>
+      </c>
+      <c r="D2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>20</v>
+      </c>
+      <c r="B3">
+        <v>0</v>
+      </c>
+      <c r="C3">
+        <v>0</v>
+      </c>
+      <c r="D3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>21</v>
+      </c>
+      <c r="B4">
+        <v>0</v>
+      </c>
+      <c r="C4">
+        <v>0</v>
+      </c>
+      <c r="D4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
         <v>3</v>
       </c>
-      <c r="B2">
+      <c r="B5">
         <v>0.1</v>
       </c>
-      <c r="C2">
+      <c r="C5">
         <v>0.1</v>
       </c>
-      <c r="D2">
+      <c r="D5">
         <v>0.1</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
         <v>4</v>
       </c>
-      <c r="B3">
+      <c r="B6">
         <v>0.2</v>
       </c>
-      <c r="C3">
+      <c r="C6">
         <v>0.2</v>
       </c>
-      <c r="D3">
+      <c r="D6">
         <v>0.2</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
         <v>5</v>
       </c>
-      <c r="B4">
+      <c r="B7">
         <v>0.4</v>
       </c>
-      <c r="C4">
+      <c r="C7">
         <v>0.5</v>
       </c>
-      <c r="D4">
+      <c r="D7">
         <v>0.4</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A8" t="s">
         <v>6</v>
       </c>
-      <c r="B5">
+      <c r="B8">
         <v>1</v>
       </c>
-      <c r="C5">
+      <c r="C8">
         <v>1.1000000000000001</v>
       </c>
-      <c r="D5">
+      <c r="D8">
         <v>0.9</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A9" t="s">
         <v>7</v>
       </c>
-      <c r="B6">
+      <c r="B9">
         <v>2</v>
       </c>
-      <c r="C6">
+      <c r="C9">
         <v>2.1</v>
       </c>
-      <c r="D6">
+      <c r="D9">
         <v>1.8</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A10" t="s">
         <v>8</v>
       </c>
-      <c r="B7">
+      <c r="B10">
         <v>4</v>
       </c>
-      <c r="C7">
+      <c r="C10">
         <v>4.3</v>
       </c>
-      <c r="D7">
+      <c r="D10">
         <v>3.7</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A11" t="s">
         <v>9</v>
       </c>
-      <c r="B8">
+      <c r="B11">
         <v>8.1999999999999993</v>
       </c>
-      <c r="C8">
+      <c r="C11">
         <v>9.1999999999999993</v>
       </c>
-      <c r="D8">
+      <c r="D11">
         <v>7.3</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A12" t="s">
         <v>10</v>
       </c>
-      <c r="B9">
+      <c r="B12">
         <v>15.8</v>
       </c>
-      <c r="C9">
+      <c r="C12">
         <v>18.2</v>
       </c>
-      <c r="D9">
+      <c r="D12">
         <v>13.5</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A13" t="s">
         <v>11</v>
       </c>
-      <c r="B10">
+      <c r="B13">
         <v>28.6</v>
       </c>
-      <c r="C10">
+      <c r="C13">
         <v>34</v>
       </c>
-      <c r="D10">
+      <c r="D13">
         <v>23.6</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A14" t="s">
         <v>12</v>
       </c>
-      <c r="B11">
+      <c r="B14">
         <v>47.2</v>
       </c>
-      <c r="C11">
+      <c r="C14">
         <v>58.1</v>
       </c>
-      <c r="D11">
+      <c r="D14">
         <v>37.5</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A15" t="s">
         <v>13</v>
       </c>
-      <c r="B12">
+      <c r="B15">
         <v>71.2</v>
       </c>
-      <c r="C12">
+      <c r="C15">
         <v>89.2</v>
       </c>
-      <c r="D12">
+      <c r="D15">
         <v>56.2</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A13" t="s">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A16" t="s">
         <v>14</v>
       </c>
-      <c r="B13">
+      <c r="B16">
         <v>102.6</v>
       </c>
-      <c r="C13">
+      <c r="C16">
         <v>128.80000000000001</v>
       </c>
-      <c r="D13">
+      <c r="D16">
         <v>82.6</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A14" t="s">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A17" t="s">
         <v>15</v>
       </c>
-      <c r="B14">
+      <c r="B17">
         <v>140.4</v>
       </c>
-      <c r="C14">
+      <c r="C17">
         <v>176.2</v>
       </c>
-      <c r="D14">
+      <c r="D17">
         <v>116.5</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A15" t="s">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A18" t="s">
         <v>16</v>
       </c>
-      <c r="B15">
+      <c r="B18">
         <v>193.5</v>
       </c>
-      <c r="C15">
+      <c r="C18">
         <v>241.5</v>
       </c>
-      <c r="D15">
+      <c r="D18">
         <v>166.8</v>
       </c>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A16" t="s">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A19" t="s">
         <v>17</v>
       </c>
-      <c r="B16">
+      <c r="B19">
         <v>285.10000000000002</v>
       </c>
-      <c r="C16">
+      <c r="C19">
         <v>342.2</v>
       </c>
-      <c r="D16">
+      <c r="D19">
         <v>262.7</v>
       </c>
     </row>
